--- a/Exercise Plan Data/New_exercise_plan.xlsx
+++ b/Exercise Plan Data/New_exercise_plan.xlsx
@@ -1,19 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer1\Desktop\Shared Code\RP2022\Exercise Plan Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA370E19-7A9B-44A7-9E36-A95B0457FD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Type_table" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Exercises" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Exercise_plan" sheetId="3" r:id="rId6"/>
+    <sheet name="Type_table" sheetId="1" r:id="rId1"/>
+    <sheet name="Exercises" sheetId="2" r:id="rId2"/>
+    <sheet name="Exercise_plan" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="289">
   <si>
     <t>Tyoe table</t>
   </si>
@@ -36,48 +45,6 @@
     <t>diabetics_0</t>
   </si>
   <si>
-    <t>body performance_1</t>
-  </si>
-  <si>
-    <t>body performance_2</t>
-  </si>
-  <si>
-    <t>body performance_3</t>
-  </si>
-  <si>
-    <t>body performance_4</t>
-  </si>
-  <si>
-    <t>Risk level heart 1</t>
-  </si>
-  <si>
-    <t>Risk level heart 2</t>
-  </si>
-  <si>
-    <t>Risk level diabetic 1</t>
-  </si>
-  <si>
-    <t>Risk level diabetic 2</t>
-  </si>
-  <si>
-    <t>Risk level diabetic 3</t>
-  </si>
-  <si>
-    <t>Body disorders_1</t>
-  </si>
-  <si>
-    <t>Body disorders_2</t>
-  </si>
-  <si>
-    <t>Body disorders_3</t>
-  </si>
-  <si>
-    <t>Body disorders_4</t>
-  </si>
-  <si>
-    <t>Body disorders_5</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -835,99 +802,221 @@
   </si>
   <si>
     <t>ID51,ID40,ID47</t>
+  </si>
+  <si>
+    <t>body_ performance_1</t>
+  </si>
+  <si>
+    <t>body_performance_1</t>
+  </si>
+  <si>
+    <t>body_ performance_2</t>
+  </si>
+  <si>
+    <t>body_ performance_3</t>
+  </si>
+  <si>
+    <t>risk_ level_ heart_ 1</t>
+  </si>
+  <si>
+    <t>risk_ level_ heart_ 2</t>
+  </si>
+  <si>
+    <t>risk_ level_ diabetic_ 1</t>
+  </si>
+  <si>
+    <t>risk_ level_ diabetic_ 2</t>
+  </si>
+  <si>
+    <t>risk_ level_ diabetic_ 3</t>
+  </si>
+  <si>
+    <t>body_ disorders_1</t>
+  </si>
+  <si>
+    <t>body_ disorders_2</t>
+  </si>
+  <si>
+    <t>body_ disorders_3</t>
+  </si>
+  <si>
+    <t>body_ disorders_4</t>
+  </si>
+  <si>
+    <t>body_ disorders_5</t>
+  </si>
+  <si>
+    <t>body_disorders_5</t>
+  </si>
+  <si>
+    <t>body_ performance_4</t>
+  </si>
+  <si>
+    <t>body_performance_2</t>
+  </si>
+  <si>
+    <t>body_performance_3</t>
+  </si>
+  <si>
+    <t>body_performance_4</t>
+  </si>
+  <si>
+    <t>Risk_level_heart_2</t>
+  </si>
+  <si>
+    <t>Risk_level_heart_1</t>
+  </si>
+  <si>
+    <t>Risk_level_diabetic_1</t>
+  </si>
+  <si>
+    <t>Risk_level_diabetic_2</t>
+  </si>
+  <si>
+    <t>Risk_level_diabetic_3</t>
+  </si>
+  <si>
+    <t>Body_disorders_1</t>
+  </si>
+  <si>
+    <t>Body_disorders_2</t>
+  </si>
+  <si>
+    <t>Body_disorders_3</t>
+  </si>
+  <si>
+    <t>Body_disorders_4</t>
+  </si>
+  <si>
+    <t>Body_disorders_5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF202124"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF202124"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -935,7 +1024,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -963,11 +1052,21 @@
     </fill>
   </fills>
   <borders count="5">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -976,17 +1075,22 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1001,149 +1105,106 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="36">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1333,29 +1394,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="25.25"/>
+    <col min="2" max="2" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1363,1898 +1429,1935 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4">
-        <v>7.0</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4">
-        <v>8.0</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4">
-        <v>9.0</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4">
-        <v>11.0</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="B14" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4">
-        <v>12.0</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4">
-        <v>13.0</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="B16" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="4">
-        <v>14.0</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="B18" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
         <v>17</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4">
-        <v>16.0</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="B19" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="4">
-        <v>17.0</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="4">
-        <v>18.0</v>
-      </c>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A2:E68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="24.75"/>
-    <col customWidth="1" min="3" max="3" width="31.63"/>
-    <col customWidth="1" min="4" max="4" width="16.25"/>
-    <col customWidth="1" min="5" max="5" width="63.13"/>
+    <col min="2" max="2" width="24.77734375" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="63.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D3" s="8">
         <v>12.3</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D4" s="10">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D5" s="10">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D6" s="10">
         <v>3.5</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D7" s="10">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D8" s="16">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D9" s="10">
         <v>4.8</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D10" s="10">
         <v>6.8</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D11" s="10">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D12" s="10">
         <v>7.5</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D13" s="10">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D14" s="10">
         <v>6.8</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D15" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D16" s="10">
         <v>8.6</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D17" s="10">
         <v>2.9</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D18" s="10">
         <v>5.5</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D19" s="10">
         <v>2.5</v>
       </c>
       <c r="E19" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="10">
+        <v>3</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="10">
+        <v>6</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="10">
-        <v>2.3</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>99</v>
       </c>
       <c r="D23" s="10">
         <v>7.7</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D24" s="10">
         <v>3.5</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D25" s="10">
         <v>2.9</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D26" s="10">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D27" s="10">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="132" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D28" s="10">
         <v>3.8</v>
       </c>
-      <c r="E28" s="22"/>
-    </row>
-    <row r="29">
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="1:5" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D29" s="10">
         <v>3.8</v>
       </c>
-      <c r="E29" s="22"/>
-    </row>
-    <row r="30">
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" spans="1:5" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="D30" s="25">
+        <v>107</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="24">
         <v>3.8</v>
       </c>
-      <c r="E30" s="26" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31">
+      <c r="E30" s="25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>127</v>
+        <v>111</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>113</v>
       </c>
       <c r="D31" s="10">
         <v>3.8</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>130</v>
+        <v>115</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>116</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="D32" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B33" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>135</v>
+        <v>119</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>121</v>
       </c>
       <c r="D33" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>138</v>
+        <v>123</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>124</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D34" s="10">
         <v>5.5</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>142</v>
+        <v>126</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>128</v>
       </c>
       <c r="D35" s="10">
         <v>5.6</v>
       </c>
       <c r="E35" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="10">
+        <v>8</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" s="31">
+        <v>3</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" s="10">
+        <v>3</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39" s="26" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="10" t="s">
+      <c r="C39" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="D39" s="10">
+        <v>3</v>
+      </c>
+      <c r="E39" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C36" s="17" t="s">
+    </row>
+    <row r="40" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D36" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="E36" s="14" t="s">
+      <c r="B40" s="26" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="7" t="s">
+      <c r="C40" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="D40" s="10">
+        <v>3</v>
+      </c>
+      <c r="E40" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C37" s="32" t="s">
+    </row>
+    <row r="41" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="D37" s="32">
-        <v>3.0</v>
-      </c>
-      <c r="E37" s="33" t="s">
+      <c r="B41" s="26" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="B38" s="27" t="s">
+      <c r="D41" s="10">
+        <v>3</v>
+      </c>
+      <c r="E41" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="C38" s="17" t="s">
+    </row>
+    <row r="42" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D38" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E38" s="14" t="s">
+      <c r="B42" s="26" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="10" t="s">
+      <c r="C42" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="D42" s="10">
+        <v>3</v>
+      </c>
+      <c r="E42" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="C39" s="17" t="s">
+    </row>
+    <row r="43" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="D39" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E39" s="14" t="s">
+      <c r="B43" s="26" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="10" t="s">
+      <c r="C43" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B40" s="27" t="s">
+      <c r="D43" s="10">
+        <v>3</v>
+      </c>
+      <c r="E43" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C40" s="17" t="s">
+    </row>
+    <row r="44" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="D40" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E40" s="14" t="s">
+      <c r="B44" s="26" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B41" s="27" t="s">
+      <c r="D44" s="10">
+        <v>3</v>
+      </c>
+      <c r="E44" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C41" s="10" t="s">
+    </row>
+    <row r="45" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="D41" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E41" s="14" t="s">
+      <c r="B45" s="26" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="10" t="s">
+      <c r="C45" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="B42" s="27" t="s">
+      <c r="D45" s="10">
+        <v>3</v>
+      </c>
+      <c r="E45" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="C42" s="10" t="s">
+    </row>
+    <row r="46" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="D42" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E42" s="14" t="s">
+      <c r="B46" s="26" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="10" t="s">
+      <c r="C46" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="B43" s="27" t="s">
+      <c r="D46" s="10">
+        <v>3</v>
+      </c>
+      <c r="E46" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C43" s="10" t="s">
+    </row>
+    <row r="47" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="D43" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E43" s="14" t="s">
+      <c r="B47" s="26" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B44" s="27" t="s">
+      <c r="D47" s="10">
+        <v>3</v>
+      </c>
+      <c r="E47" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="C44" s="10" t="s">
+    </row>
+    <row r="48" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="D44" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E44" s="14" t="s">
+      <c r="B48" s="26" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="10" t="s">
+      <c r="C48" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="B45" s="27" t="s">
+      <c r="D48" s="10">
+        <v>3</v>
+      </c>
+      <c r="E48" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="C45" s="10" t="s">
+    </row>
+    <row r="49" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="D45" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E45" s="14" t="s">
+      <c r="B49" s="26" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="10" t="s">
+      <c r="C49" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="B46" s="27" t="s">
+      <c r="D49" s="10">
+        <v>3</v>
+      </c>
+      <c r="E49" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="C46" s="34" t="s">
+    </row>
+    <row r="50" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="D46" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E46" s="14" t="s">
+      <c r="B50" s="26" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="10" t="s">
+      <c r="C50" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="D50" s="10">
+        <v>3</v>
+      </c>
+      <c r="E50" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="C47" s="10" t="s">
+    </row>
+    <row r="51" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="D47" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E47" s="14" t="s">
+      <c r="B51" s="26" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="10" t="s">
+      <c r="C51" s="10"/>
+      <c r="D51" s="10">
+        <v>3</v>
+      </c>
+      <c r="E51" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="B48" s="35" t="s">
+    </row>
+    <row r="52" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="B52" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="D48" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E48" s="14" t="s">
+      <c r="C52" s="10"/>
+      <c r="D52" s="10">
+        <v>3</v>
+      </c>
+      <c r="E52" s="14" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="10" t="s">
+    <row r="53" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B49" s="27" t="s">
+      <c r="B53" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C53" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="D49" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E49" s="14" t="s">
+      <c r="D53" s="10">
+        <v>3</v>
+      </c>
+      <c r="E53" s="14" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="10" t="s">
+    <row r="54" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B50" s="27" t="s">
+      <c r="B54" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C54" s="10"/>
+      <c r="D54" s="10">
+        <v>3</v>
+      </c>
+      <c r="E54" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="D50" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E50" s="14" t="s">
+    </row>
+    <row r="55" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="10" t="s">
+      <c r="B55" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="B51" s="27" t="s">
+      <c r="C55" s="10"/>
+      <c r="D55" s="10">
+        <v>3</v>
+      </c>
+      <c r="E55" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="C51" s="22"/>
-      <c r="D51" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E51" s="14" t="s">
+    </row>
+    <row r="56" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="10" t="s">
+      <c r="B56" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="B52" s="27" t="s">
+      <c r="C56" s="10"/>
+      <c r="D56" s="10">
+        <v>3</v>
+      </c>
+      <c r="E56" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="C52" s="22"/>
-      <c r="D52" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E52" s="14" t="s">
+    </row>
+    <row r="57" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="10" t="s">
+      <c r="B57" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="B53" s="27" t="s">
+      <c r="C57" s="10"/>
+      <c r="D57" s="10">
+        <v>3</v>
+      </c>
+      <c r="E57" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="C53" s="17" t="s">
+    </row>
+    <row r="58" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="D53" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E53" s="14" t="s">
+      <c r="B58" s="34" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="10" t="s">
+      <c r="C58" s="10"/>
+      <c r="D58" s="10">
+        <v>3</v>
+      </c>
+      <c r="E58" s="10"/>
+    </row>
+    <row r="59" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="B54" s="27" t="s">
+      <c r="B59" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E54" s="14" t="s">
+      <c r="C59" s="10"/>
+      <c r="D59" s="10">
+        <v>3</v>
+      </c>
+      <c r="E59" s="10"/>
+    </row>
+    <row r="60" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="10" t="s">
+      <c r="B60" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="B55" s="27" t="s">
+      <c r="C60" s="10"/>
+      <c r="D60" s="10">
+        <v>3</v>
+      </c>
+      <c r="E60" s="10"/>
+    </row>
+    <row r="61" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="C55" s="22"/>
-      <c r="D55" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E55" s="14" t="s">
+      <c r="B61" s="26" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="10" t="s">
+      <c r="C61" s="10"/>
+      <c r="D61" s="10">
+        <v>3</v>
+      </c>
+      <c r="E61" s="10"/>
+    </row>
+    <row r="62" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="B56" s="27" t="s">
+      <c r="B62" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="C56" s="22"/>
-      <c r="D56" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E56" s="14" t="s">
+      <c r="C62" s="10"/>
+      <c r="D62" s="10">
+        <v>3</v>
+      </c>
+      <c r="E62" s="10"/>
+    </row>
+    <row r="63" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="10" t="s">
+      <c r="B63" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="B57" s="27" t="s">
+      <c r="C63" s="10"/>
+      <c r="D63" s="10">
+        <v>3</v>
+      </c>
+      <c r="E63" s="10"/>
+    </row>
+    <row r="64" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C57" s="22"/>
-      <c r="D57" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E57" s="14" t="s">
+      <c r="B64" s="34" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="10" t="s">
+      <c r="C64" s="10"/>
+      <c r="D64" s="10">
+        <v>3</v>
+      </c>
+      <c r="E64" s="10"/>
+    </row>
+    <row r="65" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="B58" s="36" t="s">
+      <c r="B65" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="C58" s="22"/>
-      <c r="D58" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E58" s="22"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="10" t="s">
+      <c r="C65" s="10"/>
+      <c r="D65" s="10">
+        <v>3</v>
+      </c>
+      <c r="E65" s="10"/>
+    </row>
+    <row r="66" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="B59" s="27" t="s">
+      <c r="B66" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="C59" s="22"/>
-      <c r="D59" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E59" s="22"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="10" t="s">
+      <c r="C66" s="10"/>
+      <c r="D66" s="10">
+        <v>3</v>
+      </c>
+      <c r="E66" s="10"/>
+    </row>
+    <row r="67" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B60" s="27" t="s">
+      <c r="B67" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="C60" s="22"/>
-      <c r="D60" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E60" s="22"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="10" t="s">
+      <c r="C67" s="10"/>
+      <c r="D67" s="10">
+        <v>3</v>
+      </c>
+      <c r="E67" s="10"/>
+    </row>
+    <row r="68" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B61" s="27" t="s">
+      <c r="B68" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="C61" s="22"/>
-      <c r="D61" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E61" s="22"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="B62" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="C62" s="22"/>
-      <c r="D62" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E62" s="22"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="B63" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="C63" s="22"/>
-      <c r="D63" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E63" s="22"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B64" s="36" t="s">
-        <v>239</v>
-      </c>
-      <c r="C64" s="22"/>
-      <c r="D64" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E64" s="22"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="B65" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="C65" s="22"/>
-      <c r="D65" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E65" s="22"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="B66" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="C66" s="22"/>
-      <c r="D66" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E66" s="22"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="B67" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="C67" s="22"/>
-      <c r="D67" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E67" s="22"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="B68" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="C68" s="22"/>
+      <c r="C68" s="10"/>
       <c r="D68" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E68" s="22"/>
+        <v>3</v>
+      </c>
+      <c r="E68" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E3"/>
-    <hyperlink r:id="rId2" ref="E4"/>
-    <hyperlink r:id="rId3" ref="E5"/>
-    <hyperlink r:id="rId4" ref="E6"/>
-    <hyperlink r:id="rId5" ref="E7"/>
-    <hyperlink r:id="rId6" ref="E8"/>
-    <hyperlink r:id="rId7" ref="E9"/>
-    <hyperlink r:id="rId8" ref="E10"/>
-    <hyperlink r:id="rId9" ref="E11"/>
-    <hyperlink r:id="rId10" ref="E12"/>
-    <hyperlink r:id="rId11" ref="E13"/>
-    <hyperlink r:id="rId12" ref="E14"/>
-    <hyperlink r:id="rId13" ref="E15"/>
-    <hyperlink r:id="rId14" ref="E16"/>
-    <hyperlink r:id="rId15" ref="E17"/>
-    <hyperlink r:id="rId16" ref="E18"/>
-    <hyperlink r:id="rId17" ref="E19"/>
-    <hyperlink r:id="rId18" ref="E20"/>
-    <hyperlink r:id="rId19" ref="E21"/>
-    <hyperlink r:id="rId20" ref="E22"/>
-    <hyperlink r:id="rId21" ref="E23"/>
-    <hyperlink r:id="rId22" ref="E24"/>
-    <hyperlink r:id="rId23" ref="E25"/>
-    <hyperlink r:id="rId24" ref="E26"/>
-    <hyperlink r:id="rId25" ref="E27"/>
-    <hyperlink r:id="rId26" ref="E30"/>
-    <hyperlink r:id="rId27" ref="E31"/>
-    <hyperlink r:id="rId28" ref="E32"/>
-    <hyperlink r:id="rId29" ref="E33"/>
-    <hyperlink r:id="rId30" ref="E34"/>
-    <hyperlink r:id="rId31" ref="E35"/>
-    <hyperlink r:id="rId32" ref="E36"/>
-    <hyperlink r:id="rId33" ref="E37"/>
-    <hyperlink r:id="rId34" ref="E38"/>
-    <hyperlink r:id="rId35" ref="E39"/>
-    <hyperlink r:id="rId36" ref="E40"/>
-    <hyperlink r:id="rId37" ref="E41"/>
-    <hyperlink r:id="rId38" ref="E42"/>
-    <hyperlink r:id="rId39" ref="E43"/>
-    <hyperlink r:id="rId40" ref="E44"/>
-    <hyperlink r:id="rId41" ref="E45"/>
-    <hyperlink r:id="rId42" ref="E46"/>
-    <hyperlink r:id="rId43" ref="E47"/>
-    <hyperlink r:id="rId44" ref="E48"/>
-    <hyperlink r:id="rId45" ref="E49"/>
-    <hyperlink r:id="rId46" ref="E50"/>
-    <hyperlink r:id="rId47" ref="E51"/>
-    <hyperlink r:id="rId48" ref="E52"/>
-    <hyperlink r:id="rId49" ref="E53"/>
-    <hyperlink r:id="rId50" ref="E54"/>
-    <hyperlink r:id="rId51" ref="E55"/>
-    <hyperlink r:id="rId52" ref="E56"/>
-    <hyperlink r:id="rId53" ref="E57"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="E8" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="E9" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="E10" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="E11" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="E12" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="E13" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="E14" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="E15" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="E16" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="E17" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="E18" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="E19" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="E20" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="E21" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="E22" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="E23" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="E24" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="E25" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="E26" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="E27" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="E30" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="E31" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="E32" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="E33" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="E34" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="E35" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="E36" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="E37" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="E38" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="E39" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="E40" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="E41" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="E42" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="E43" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="E44" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="E45" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="E46" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="E47" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="E48" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="E49" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="E50" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="E51" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="E52" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="E53" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="E54" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="E55" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="E56" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="E57" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
   </hyperlinks>
-  <drawing r:id="rId54"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.75"/>
-    <col customWidth="1" min="2" max="2" width="21.13"/>
-    <col customWidth="1" min="3" max="3" width="50.38"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A38" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="C10" s="10" t="s">
+    </row>
+    <row r="47" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C14" s="10" t="s">
+    <row r="51" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C52" s="10" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C49" s="10" t="s">
+    <row r="53" spans="1:3" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A53" s="35" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>256</v>
+      <c r="B53" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="A55" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>